--- a/Traces/aggregate_10_clients.xlsx
+++ b/Traces/aggregate_10_clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF8DF64-F18A-FA48-9EB9-DE3D89959900}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052C1C49-A580-0B45-942B-016777334453}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="740" windowWidth="28800" windowHeight="15940" xr2:uid="{F8E3E98A-9FEC-384C-ABCA-646B06952F29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{F8E3E98A-9FEC-384C-ABCA-646B06952F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6C02DD5D-565C-1F45-8D9F-62D98EA5A5CA}" name="aggregate_10_clients" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/aggregate_10_clients.txt" decimal="," thousands="." space="1" consecutive="1">
+    <textPr sourceFile="/Users/laurent/Documents/Q2/LINGI2146/Project/src/Traces/aggregate_10_clients.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="30">
         <textField/>
         <textField/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:Z311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G23:G29"/>
+      <selection activeCell="T11" sqref="T11:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,8 +1273,8 @@
         <v>32</v>
       </c>
       <c r="U11" s="1">
-        <f>SUM(N12:N291)/COUNT(N12:N291)</f>
-        <v>0.76219840524821292</v>
+        <f>SUMIF(N:N,"&gt;=0")/COUNTIF(N:N,"&gt;=0")</f>
+        <v>0.76794488525390647</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>33</v>
@@ -1342,8 +1342,8 @@
         <v>34</v>
       </c>
       <c r="U12" s="1">
-        <f>SUM(O13:O292)/COUNT(O13:O292)</f>
-        <v>7.2985491875792827E-2</v>
+        <f>SUMIF(O:O,"&gt;=0")/COUNTIF(O:O,"&gt;=0")</f>
+        <v>7.2977822875976608E-2</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>33</v>
@@ -1411,8 +1411,8 @@
         <v>35</v>
       </c>
       <c r="U13" s="1">
-        <f>SUM(P14:P293)/COUNT(P14:P293)</f>
-        <v>0.91308240601937185</v>
+        <f>SUMIF(P:P,"&gt;=0")/COUNTIF(P:P,"&gt;=0")</f>
+        <v>0.88117236328124915</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>33</v>
@@ -1480,8 +1480,8 @@
         <v>36</v>
       </c>
       <c r="U14" s="1">
-        <f>SUM(Q15:Q294)/COUNT(Q15:Q294)</f>
-        <v>0.2403443734144371</v>
+        <f>SUMIF(Q:Q,"&gt;=0")/COUNTIF(Q:Q,"&gt;=0")</f>
+        <v>0.24415903320312485</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>33</v>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="U16" s="1">
         <f>SUM(U11:U14)</f>
-        <v>1.9886106765578146</v>
+        <v>1.9662541046142572</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>38</v>
